--- a/aaaaaaa.xlsx
+++ b/aaaaaaa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="20740" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -593,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +696,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -793,7 +799,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1287,6 +1293,7 @@
     <xf numFmtId="167" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,94 +1312,95 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1408,7 +1416,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Deconstrucción"/>
@@ -1746,7 +1754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1756,47 +1764,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="6"/>
-    <col min="12" max="12" width="31.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="31.19921875" style="6" customWidth="1"/>
     <col min="13" max="16384" width="19.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
       <c r="F2" s="153"/>
       <c r="G2" s="153"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="165">
+      <c r="B3" s="166">
         <v>28000</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="154"/>
       <c r="G3" s="155"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1812,7 +1820,7 @@
       <c r="F4" s="156"/>
       <c r="G4" s="157"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1829,7 +1837,7 @@
       <c r="F5" s="158"/>
       <c r="G5" s="159"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="17">
         <f>SUM(C4:C5)</f>
@@ -1840,15 +1848,15 @@
       <c r="F6" s="160"/>
       <c r="G6" s="157"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="F7" s="158"/>
       <c r="G7" s="161"/>
     </row>
-    <row r="8" spans="1:12" ht="10" customHeight="1">
+    <row r="8" spans="1:12" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="39" customHeight="1">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
@@ -1858,20 +1866,20 @@
       <c r="C9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="170" t="s">
+      <c r="D9" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="170"/>
+      <c r="E9" s="171"/>
       <c r="F9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="168" t="s">
+      <c r="H9" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="168"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="20" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="22" customHeight="1">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -1896,13 +1904,13 @@
       <c r="G10" s="26">
         <v>28000</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
       <c r="J10" s="20"/>
       <c r="K10" s="24"/>
       <c r="L10" s="162"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1942,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
@@ -1959,7 +1967,7 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1992,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>13</v>
       </c>
@@ -2016,7 +2024,7 @@
       </c>
       <c r="L14" s="49"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>15</v>
       </c>
@@ -2041,7 +2049,7 @@
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
@@ -2066,7 +2074,7 @@
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2107,7 @@
       </c>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +2132,7 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>19</v>
       </c>
@@ -2149,7 +2157,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
         <v>20</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>0.19405040628012671</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2217,7 @@
       <c r="L21" s="72"/>
       <c r="M21" s="77"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2243,7 @@
       <c r="L22" s="72"/>
       <c r="M22" s="77"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
         <v>24</v>
       </c>
@@ -2261,7 +2269,7 @@
       <c r="L23" s="72"/>
       <c r="M23" s="77"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="74" t="s">
         <v>25</v>
       </c>
@@ -2287,7 +2295,7 @@
       <c r="L24" s="72"/>
       <c r="M24" s="77"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="74" t="s">
         <v>26</v>
       </c>
@@ -2313,7 +2321,7 @@
       <c r="L25" s="72"/>
       <c r="M25" s="77"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="74" t="s">
         <v>27</v>
       </c>
@@ -2339,7 +2347,7 @@
       <c r="L26" s="72"/>
       <c r="M26" s="77"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="74" t="s">
         <v>28</v>
       </c>
@@ -2365,7 +2373,7 @@
       <c r="L27" s="72"/>
       <c r="M27" s="77"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
         <v>29</v>
       </c>
@@ -2399,7 +2407,7 @@
         <v>0.17959575429087615</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>31</v>
       </c>
@@ -2424,7 +2432,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>32</v>
       </c>
@@ -2449,7 +2457,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
         <v>33</v>
       </c>
@@ -2481,7 +2489,7 @@
       </c>
       <c r="L31" s="87"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="88" t="s">
         <v>35</v>
       </c>
@@ -2506,7 +2514,7 @@
       <c r="K32" s="87"/>
       <c r="L32" s="87"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="88" t="s">
         <v>36</v>
       </c>
@@ -2531,7 +2539,7 @@
       <c r="K33" s="87"/>
       <c r="L33" s="87"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
         <v>37</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>0.22890715827935559</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="74" t="s">
         <v>38</v>
       </c>
@@ -2593,7 +2601,7 @@
       <c r="K35" s="72"/>
       <c r="L35" s="72"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="74" t="s">
         <v>39</v>
       </c>
@@ -2618,7 +2626,7 @@
       <c r="K36" s="72"/>
       <c r="L36" s="72"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="74" t="s">
         <v>40</v>
       </c>
@@ -2643,7 +2651,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="74" t="s">
         <v>41</v>
       </c>
@@ -2668,7 +2676,7 @@
       <c r="K38" s="72"/>
       <c r="L38" s="72"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="s">
         <v>42</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>0.58775845864661647</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>43</v>
       </c>
@@ -2731,7 +2739,7 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>44</v>
       </c>
@@ -2756,7 +2764,7 @@
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>45</v>
       </c>
@@ -2781,7 +2789,7 @@
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="95" t="s">
         <v>46</v>
       </c>
@@ -2819,7 +2827,7 @@
         <v>0.35903938617776582</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="105" t="s">
         <v>47</v>
       </c>
@@ -2844,7 +2852,7 @@
       <c r="K44" s="104"/>
       <c r="L44" s="104"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="105" t="s">
         <v>48</v>
       </c>
@@ -2869,7 +2877,7 @@
       <c r="K45" s="104"/>
       <c r="L45" s="104"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="105" t="s">
         <v>49</v>
       </c>
@@ -2894,7 +2902,7 @@
       <c r="K46" s="104"/>
       <c r="L46" s="104"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="105" t="s">
         <v>50</v>
       </c>
@@ -2919,7 +2927,7 @@
       <c r="K47" s="104"/>
       <c r="L47" s="104"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="63" t="s">
         <v>51</v>
       </c>
@@ -2955,7 +2963,7 @@
       </c>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="74" t="s">
         <v>54</v>
       </c>
@@ -2980,7 +2988,7 @@
       <c r="K49" s="72"/>
       <c r="L49" s="72"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="74" t="s">
         <v>55</v>
       </c>
@@ -3005,7 +3013,7 @@
       <c r="K50" s="72"/>
       <c r="L50" s="72"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="79" t="s">
         <v>56</v>
       </c>
@@ -3041,7 +3049,7 @@
       </c>
       <c r="L51" s="87"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="88" t="s">
         <v>57</v>
       </c>
@@ -3066,7 +3074,7 @@
       <c r="K52" s="87"/>
       <c r="L52" s="87"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="93" t="s">
         <v>58</v>
       </c>
@@ -3104,7 +3112,7 @@
         <v>0.41763301500682148</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
         <v>59</v>
       </c>
@@ -3129,7 +3137,7 @@
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
         <v>60</v>
       </c>
@@ -3154,7 +3162,7 @@
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="109"/>
       <c r="B56" s="110"/>
       <c r="C56" s="111"/>
@@ -3168,7 +3176,7 @@
       <c r="K56" s="115"/>
       <c r="L56" s="115"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="116" t="s">
         <v>61</v>
       </c>
@@ -3199,7 +3207,7 @@
       <c r="K57" s="126"/>
       <c r="L57" s="126"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="127" t="s">
         <v>62</v>
       </c>
@@ -3224,7 +3232,7 @@
       <c r="K58" s="126"/>
       <c r="L58" s="126"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="129" t="s">
         <v>63</v>
       </c>
@@ -3255,7 +3263,7 @@
       <c r="K59" s="137"/>
       <c r="L59" s="137"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="138" t="s">
         <v>64</v>
       </c>
@@ -3280,7 +3288,7 @@
       <c r="K60" s="137"/>
       <c r="L60" s="137"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="116" t="s">
         <v>65</v>
       </c>
@@ -3309,7 +3317,7 @@
       <c r="K61" s="126"/>
       <c r="L61" s="126"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="127" t="s">
         <v>66</v>
       </c>
@@ -3336,7 +3344,7 @@
       <c r="K62" s="126"/>
       <c r="L62" s="126"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F63" s="140">
         <v>0.99999789999999977</v>
       </c>
@@ -3344,14 +3352,14 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E64" s="141"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="142"/>
       <c r="I64" s="142"/>
     </row>
-    <row r="65" spans="1:12" ht="16">
+    <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="143"/>
       <c r="E65" s="141"/>
       <c r="F65" s="16"/>
@@ -3359,7 +3367,7 @@
       <c r="H65" s="142"/>
       <c r="I65" s="142"/>
     </row>
-    <row r="66" spans="1:12" ht="16">
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A66" s="143"/>
       <c r="E66" s="141"/>
       <c r="F66" s="16"/>
@@ -3367,7 +3375,7 @@
       <c r="H66" s="142"/>
       <c r="I66" s="142"/>
     </row>
-    <row r="67" spans="1:12" ht="16">
+    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="143"/>
       <c r="E67" s="141"/>
       <c r="F67" s="16"/>
@@ -3375,7 +3383,7 @@
       <c r="H67" s="142"/>
       <c r="I67" s="142"/>
     </row>
-    <row r="68" spans="1:12" ht="16">
+    <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A68" s="143"/>
       <c r="E68" s="141"/>
       <c r="F68" s="16"/>
@@ -3383,7 +3391,7 @@
       <c r="H68" s="142"/>
       <c r="I68" s="142"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E69" s="141"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -3392,7 +3400,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="144"/>
       <c r="C70" s="16"/>
       <c r="D70" s="142"/>
@@ -3404,7 +3412,7 @@
       <c r="J70" s="145"/>
       <c r="L70" s="146"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="147"/>
       <c r="C71" s="16"/>
       <c r="D71" s="142"/>
@@ -3416,7 +3424,7 @@
       <c r="J71" s="145"/>
       <c r="L71" s="146"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="147"/>
       <c r="C72" s="16"/>
       <c r="D72" s="142"/>
@@ -3429,7 +3437,7 @@
       <c r="K72" s="146"/>
       <c r="L72" s="146"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="144"/>
       <c r="C73" s="16"/>
       <c r="D73" s="142"/>
@@ -3442,7 +3450,7 @@
       <c r="K73" s="146"/>
       <c r="L73" s="146"/>
     </row>
-    <row r="74" spans="1:12" ht="16">
+    <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="C74" s="16"/>
       <c r="D74" s="142"/>
@@ -3455,7 +3463,7 @@
       <c r="K74" s="146"/>
       <c r="L74" s="146"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="151"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -3466,21 +3474,21 @@
       <c r="I75" s="142"/>
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E76" s="141"/>
       <c r="F76" s="142"/>
       <c r="G76" s="142"/>
       <c r="H76" s="142"/>
       <c r="I76" s="142"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E77" s="141"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="142"/>
       <c r="I77" s="142"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="142"/>
@@ -3489,7 +3497,7 @@
       <c r="H78" s="142"/>
       <c r="I78" s="142"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="142"/>
@@ -3498,7 +3506,7 @@
       <c r="H79" s="142"/>
       <c r="I79" s="142"/>
     </row>
-    <row r="80" spans="1:12" ht="16">
+    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A80" s="143"/>
       <c r="C80" s="16"/>
       <c r="D80" s="142"/>
@@ -3508,7 +3516,7 @@
       <c r="H80" s="142"/>
       <c r="I80" s="142"/>
     </row>
-    <row r="81" spans="1:9" ht="16">
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A81" s="143"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -3518,7 +3526,7 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="1:9" ht="16">
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A82" s="143"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3528,7 +3536,7 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="15"/>
@@ -3537,7 +3545,7 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="15"/>
@@ -3546,7 +3554,7 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="15"/>
@@ -3555,7 +3563,7 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="15"/>
@@ -3564,7 +3572,7 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="15"/>
@@ -3573,7 +3581,7 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="15"/>
@@ -3582,7 +3590,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="15"/>
@@ -3591,7 +3599,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="15"/>
@@ -3600,7 +3608,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="15"/>
@@ -3609,7 +3617,7 @@
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="15"/>
@@ -3618,7 +3626,7 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="15"/>
@@ -3627,7 +3635,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="15"/>
@@ -3636,7 +3644,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="15"/>
@@ -3645,7 +3653,7 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="15"/>
@@ -3654,7 +3662,7 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="3:9">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="15"/>
@@ -3663,7 +3671,7 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="3:9">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="15"/>
@@ -3672,7 +3680,7 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
     </row>
-    <row r="99" spans="3:9">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="15"/>
@@ -3681,7 +3689,7 @@
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
     </row>
-    <row r="100" spans="3:9">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="15"/>
@@ -3690,7 +3698,7 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
     </row>
-    <row r="101" spans="3:9">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="15"/>
@@ -3699,7 +3707,7 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" spans="3:9">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="15"/>
@@ -3708,7 +3716,7 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
     </row>
-    <row r="103" spans="3:9">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="15"/>
@@ -3717,7 +3725,7 @@
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
     </row>
-    <row r="104" spans="3:9">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="15"/>
@@ -3726,7 +3734,7 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
     </row>
-    <row r="105" spans="3:9">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="15"/>
@@ -3735,7 +3743,7 @@
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
     </row>
-    <row r="106" spans="3:9">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="15"/>
@@ -3744,7 +3752,7 @@
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
     </row>
-    <row r="107" spans="3:9">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="15"/>
@@ -3753,7 +3761,7 @@
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
     </row>
-    <row r="108" spans="3:9">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="15"/>
@@ -3762,7 +3770,7 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
     </row>
-    <row r="109" spans="3:9">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="15"/>
@@ -3771,7 +3779,7 @@
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
     </row>
-    <row r="110" spans="3:9">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="15"/>
@@ -3780,7 +3788,7 @@
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
     </row>
-    <row r="111" spans="3:9">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="15"/>
@@ -3789,7 +3797,7 @@
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
     </row>
-    <row r="112" spans="3:9">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="15"/>
@@ -3798,7 +3806,7 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
     </row>
-    <row r="113" spans="3:9">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="15"/>
@@ -3807,7 +3815,7 @@
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
     </row>
-    <row r="114" spans="3:9">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="15"/>
@@ -3816,7 +3824,7 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
     </row>
-    <row r="115" spans="3:9">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="15"/>
@@ -3825,7 +3833,7 @@
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
     </row>
-    <row r="116" spans="3:9">
+    <row r="116" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="15"/>
@@ -3834,7 +3842,7 @@
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
     </row>
-    <row r="117" spans="3:9">
+    <row r="117" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="15"/>
@@ -3843,7 +3851,7 @@
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
     </row>
-    <row r="118" spans="3:9">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="15"/>
@@ -3852,7 +3860,7 @@
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
     </row>
-    <row r="119" spans="3:9">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="15"/>
@@ -3861,7 +3869,7 @@
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
     </row>
-    <row r="120" spans="3:9">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="15"/>
@@ -3870,7 +3878,7 @@
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="3:9">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="15"/>
@@ -3879,7 +3887,7 @@
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
     </row>
-    <row r="122" spans="3:9">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="15"/>
@@ -3888,7 +3896,7 @@
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
     </row>
-    <row r="123" spans="3:9">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="15"/>
@@ -3897,7 +3905,7 @@
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
     </row>
-    <row r="124" spans="3:9">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="15"/>
@@ -3906,7 +3914,7 @@
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
     </row>
-    <row r="125" spans="3:9">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="15"/>
@@ -3915,7 +3923,7 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="3:9">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="15"/>
@@ -3924,7 +3932,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="3:9">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="E127" s="15"/>
@@ -3933,7 +3941,7 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" spans="3:9">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="E128" s="15"/>
@@ -3942,7 +3950,7 @@
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
     </row>
-    <row r="129" spans="3:9">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="E129" s="15"/>
@@ -3951,7 +3959,7 @@
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
     </row>
-    <row r="130" spans="3:9">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
       <c r="E130" s="15"/>
@@ -3960,7 +3968,7 @@
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
     </row>
-    <row r="131" spans="3:9">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
       <c r="E131" s="15"/>
@@ -3969,7 +3977,7 @@
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
     </row>
-    <row r="132" spans="3:9">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="15"/>
@@ -3978,7 +3986,7 @@
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
     </row>
-    <row r="133" spans="3:9">
+    <row r="133" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="15"/>
@@ -3987,7 +3995,7 @@
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
     </row>
-    <row r="134" spans="3:9">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="15"/>
@@ -3996,7 +4004,7 @@
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
     </row>
-    <row r="135" spans="3:9">
+    <row r="135" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="15"/>
@@ -4005,7 +4013,7 @@
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
     </row>
-    <row r="136" spans="3:9">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="15"/>
@@ -4014,7 +4022,7 @@
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
     </row>
-    <row r="137" spans="3:9">
+    <row r="137" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="15"/>
@@ -4023,7 +4031,7 @@
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
     </row>
-    <row r="138" spans="3:9">
+    <row r="138" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="15"/>
@@ -4032,7 +4040,7 @@
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
     </row>
-    <row r="139" spans="3:9">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="15"/>
@@ -4041,7 +4049,7 @@
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
     </row>
-    <row r="140" spans="3:9">
+    <row r="140" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="15"/>
@@ -4050,7 +4058,7 @@
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
     </row>
-    <row r="141" spans="3:9">
+    <row r="141" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="15"/>
@@ -4083,7 +4091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4096,19 +4104,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.69921875" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -4119,289 +4127,294 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="172" t="s">
         <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18">
+    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="172" t="s">
         <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="172" t="s">
         <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18">
+    <row r="5" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="172" t="s">
         <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18">
+    <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="172" t="s">
         <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18">
+    <row r="9" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="172" t="s">
         <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="172"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18">
+    <row r="12" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="172" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18">
+    <row r="13" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="172" t="s">
         <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18">
+    <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="172" t="s">
         <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18">
+    <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="172" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18">
+    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="172" t="s">
         <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18">
+    <row r="17" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="172" t="s">
         <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18">
+    <row r="18" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="172" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="172"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18">
+    <row r="20" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="172" t="s">
         <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18">
+    <row r="21" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="172" t="s">
         <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="172"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18">
+    <row r="23" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="172" t="s">
         <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18">
+    <row r="24" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="172" t="s">
         <v>98</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="172"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18">
+    <row r="26" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="172" t="s">
         <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18">
+    <row r="27" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="172" t="s">
         <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18">
+    <row r="28" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="172" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18">
+    <row r="29" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="172" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="172"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18">
+    <row r="31" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="172" t="s">
         <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18">
+    <row r="32" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="93" t="s">
         <v>42</v>
       </c>
@@ -4412,34 +4425,35 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="172" t="s">
         <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="172"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18">
+    <row r="35" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="172" t="s">
         <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18">
+    <row r="36" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="95" t="s">
         <v>46</v>
       </c>
@@ -4450,88 +4464,89 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18">
+    <row r="37" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="171" t="s">
+      <c r="B37" s="165" t="s">
         <v>101</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18">
+    <row r="38" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="173" t="s">
         <v>102</v>
       </c>
       <c r="C38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18">
+    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="173" t="s">
         <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18">
+    <row r="40" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="171" t="s">
+      <c r="B40" s="173" t="s">
         <v>104</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="172"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18">
+    <row r="43" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="173" t="s">
         <v>105</v>
       </c>
       <c r="C43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18">
+    <row r="44" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="173" t="s">
         <v>106</v>
       </c>
       <c r="C44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18">
+    <row r="46" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
         <v>51</v>
       </c>
@@ -4542,34 +4557,35 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18">
+    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="172" t="s">
         <v>108</v>
       </c>
       <c r="C48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18">
+    <row r="49" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="172" t="s">
         <v>109</v>
       </c>
       <c r="C49" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18">
+      <c r="D49" s="172"/>
+    </row>
+    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="116" t="s">
         <v>61</v>
       </c>
@@ -4580,7 +4596,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18">
+    <row r="53" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="129" t="s">
         <v>63</v>
       </c>
@@ -4591,7 +4607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18">
+    <row r="55" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="116" t="s">
         <v>65</v>
       </c>
